--- a/data_month/zb/工业/工业分大类行业出口交货值(2003-2011)/通信设备、计算机及其他电子设备制造业.xlsx
+++ b/data_month/zb/工业/工业分大类行业出口交货值(2003-2011)/通信设备、计算机及其他电子设备制造业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,1050 +454,1220 @@
           <t>通信设备、计算机及其他电子设备制造业出口交货值_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>通信设备、计算机及其他电子设备制造业出口交货值</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.25</v>
+        <v>9.33</v>
       </c>
       <c r="C2" t="n">
-        <v>2583.44</v>
+        <v>1594.62</v>
       </c>
       <c r="D2" t="n">
-        <v>21121.36</v>
+        <v>3525.25</v>
       </c>
       <c r="E2" t="n">
-        <v>19.34</v>
+        <v>19.78</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3525.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.66</v>
+        <v>16.86</v>
       </c>
       <c r="C3" t="n">
-        <v>2609.64</v>
+        <v>1954.81</v>
       </c>
       <c r="D3" t="n">
-        <v>23772.98</v>
+        <v>5542.7</v>
       </c>
       <c r="E3" t="n">
-        <v>19.68</v>
+        <v>19.09</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2017.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.4</v>
+        <v>12.18</v>
       </c>
       <c r="C4" t="n">
-        <v>2555.83</v>
+        <v>1953.75</v>
       </c>
       <c r="D4" t="n">
-        <v>26386.87</v>
+        <v>7471.28</v>
       </c>
       <c r="E4" t="n">
-        <v>19.57</v>
+        <v>16.17</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1928.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.33</v>
+        <v>12.87</v>
       </c>
       <c r="C5" t="n">
-        <v>1594.62</v>
+        <v>1886.82</v>
       </c>
       <c r="D5" t="n">
-        <v>3525.25</v>
+        <v>9383.290000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>19.78</v>
+        <v>15.55</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1912.010000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.86</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>1954.81</v>
+        <v>2100.25</v>
       </c>
       <c r="D6" t="n">
-        <v>5542.7</v>
+        <v>11435.81</v>
       </c>
       <c r="E6" t="n">
-        <v>19.09</v>
+        <v>15.65</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2052.519999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.18</v>
+        <v>23.4</v>
       </c>
       <c r="C7" t="n">
-        <v>1953.75</v>
+        <v>2128.54</v>
       </c>
       <c r="D7" t="n">
-        <v>7471.28</v>
+        <v>13701.7</v>
       </c>
       <c r="E7" t="n">
-        <v>16.17</v>
+        <v>17.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2265.890000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.87</v>
+        <v>21.33</v>
       </c>
       <c r="C8" t="n">
-        <v>1886.82</v>
+        <v>2195.76</v>
       </c>
       <c r="D8" t="n">
-        <v>9383.290000000001</v>
+        <v>15918.33</v>
       </c>
       <c r="E8" t="n">
-        <v>15.55</v>
+        <v>18.06</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2216.629999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>22.55</v>
       </c>
       <c r="C9" t="n">
-        <v>2100.25</v>
+        <v>2499.03</v>
       </c>
       <c r="D9" t="n">
-        <v>11435.81</v>
+        <v>18524.97</v>
       </c>
       <c r="E9" t="n">
-        <v>15.65</v>
+        <v>19.35</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2606.640000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.4</v>
+        <v>20.25</v>
       </c>
       <c r="C10" t="n">
-        <v>2128.54</v>
+        <v>2583.44</v>
       </c>
       <c r="D10" t="n">
-        <v>13701.7</v>
+        <v>21121.36</v>
       </c>
       <c r="E10" t="n">
-        <v>17.28</v>
+        <v>19.34</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2596.389999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.33</v>
+        <v>18.66</v>
       </c>
       <c r="C11" t="n">
-        <v>2195.76</v>
+        <v>2609.64</v>
       </c>
       <c r="D11" t="n">
-        <v>15918.33</v>
+        <v>23772.98</v>
       </c>
       <c r="E11" t="n">
-        <v>18.06</v>
+        <v>19.68</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2651.619999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.55</v>
+        <v>17.4</v>
       </c>
       <c r="C12" t="n">
-        <v>2499.03</v>
+        <v>2555.83</v>
       </c>
       <c r="D12" t="n">
-        <v>18524.97</v>
+        <v>26386.87</v>
       </c>
       <c r="E12" t="n">
-        <v>19.35</v>
+        <v>19.57</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2613.889999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.9</v>
+        <v>13.8</v>
       </c>
       <c r="C13" t="n">
-        <v>2700.6</v>
+        <v>1832.3</v>
       </c>
       <c r="D13" t="n">
-        <v>24005.3</v>
+        <v>3946.6</v>
       </c>
       <c r="E13" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3946.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.9</v>
+        <v>18.8</v>
       </c>
       <c r="C14" t="n">
-        <v>2384.6</v>
+        <v>2250.8</v>
       </c>
       <c r="D14" t="n">
-        <v>26518.2</v>
+        <v>6290.1</v>
       </c>
       <c r="E14" t="n">
-        <v>12.2</v>
+        <v>16.4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2343.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.2</v>
+        <v>20.4</v>
       </c>
       <c r="C15" t="n">
-        <v>2267.2</v>
+        <v>2325.4</v>
       </c>
       <c r="D15" t="n">
-        <v>28804.2</v>
+        <v>8639.1</v>
       </c>
       <c r="E15" t="n">
-        <v>10.2</v>
+        <v>17.9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2349</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.8</v>
+        <v>24.6</v>
       </c>
       <c r="C16" t="n">
-        <v>1832.3</v>
+        <v>2333.7</v>
       </c>
       <c r="D16" t="n">
-        <v>3946.6</v>
+        <v>11084.3</v>
       </c>
       <c r="E16" t="n">
-        <v>11.5</v>
+        <v>19.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2445.199999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18.8</v>
+        <v>14.2</v>
       </c>
       <c r="C17" t="n">
-        <v>2250.8</v>
+        <v>2369.3</v>
       </c>
       <c r="D17" t="n">
-        <v>6290.1</v>
+        <v>13504.7</v>
       </c>
       <c r="E17" t="n">
-        <v>16.4</v>
+        <v>19.6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2420.400000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.4</v>
+        <v>12.5</v>
       </c>
       <c r="C18" t="n">
-        <v>2325.4</v>
+        <v>2381.4</v>
       </c>
       <c r="D18" t="n">
-        <v>8639.1</v>
+        <v>15930.6</v>
       </c>
       <c r="E18" t="n">
-        <v>17.9</v>
+        <v>17.4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2425.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.6</v>
+        <v>17.5</v>
       </c>
       <c r="C19" t="n">
-        <v>2333.7</v>
+        <v>2581.9</v>
       </c>
       <c r="D19" t="n">
-        <v>11084.3</v>
+        <v>18674.7</v>
       </c>
       <c r="E19" t="n">
-        <v>19.6</v>
+        <v>18.1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2744.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>14.2</v>
+        <v>7.5</v>
       </c>
       <c r="C20" t="n">
-        <v>2369.3</v>
+        <v>2671.3</v>
       </c>
       <c r="D20" t="n">
-        <v>13504.7</v>
+        <v>21373.2</v>
       </c>
       <c r="E20" t="n">
-        <v>19.6</v>
+        <v>16.1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2698.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12.5</v>
+        <v>3.9</v>
       </c>
       <c r="C21" t="n">
-        <v>2381.4</v>
+        <v>2700.6</v>
       </c>
       <c r="D21" t="n">
-        <v>15930.6</v>
+        <v>24005.3</v>
       </c>
       <c r="E21" t="n">
-        <v>17.4</v>
+        <v>14.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2632.099999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.5</v>
+        <v>-8.9</v>
       </c>
       <c r="C22" t="n">
-        <v>2581.9</v>
+        <v>2384.6</v>
       </c>
       <c r="D22" t="n">
-        <v>18674.7</v>
+        <v>26518.2</v>
       </c>
       <c r="E22" t="n">
-        <v>18.1</v>
+        <v>12.2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2512.900000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.5</v>
+        <v>-10.2</v>
       </c>
       <c r="C23" t="n">
-        <v>2671.3</v>
+        <v>2267.2</v>
       </c>
       <c r="D23" t="n">
-        <v>21373.2</v>
+        <v>28804.2</v>
       </c>
       <c r="E23" t="n">
-        <v>16.1</v>
+        <v>10.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2286</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-6.95</v>
+        <v>-12.38</v>
       </c>
       <c r="C24" t="n">
-        <v>2571.23</v>
+        <v>1667.98</v>
       </c>
       <c r="D24" t="n">
-        <v>21750.4</v>
+        <v>3258.59</v>
       </c>
       <c r="E24" t="n">
-        <v>-9.869999999999999</v>
+        <v>-19.02</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3258.59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.81</v>
+        <v>-10.11</v>
       </c>
       <c r="C25" t="n">
-        <v>2667.24</v>
+        <v>2038.98</v>
       </c>
       <c r="D25" t="n">
-        <v>24515.18</v>
+        <v>5352.86</v>
       </c>
       <c r="E25" t="n">
-        <v>-7.96</v>
+        <v>-15.49</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2094.27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>17.72</v>
+        <v>-8.609999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>2711.64</v>
+        <v>2149.76</v>
       </c>
       <c r="D26" t="n">
-        <v>27327.17</v>
+        <v>7502.46</v>
       </c>
       <c r="E26" t="n">
-        <v>-5.53</v>
+        <v>-13.77</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2149.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-12.38</v>
+        <v>-7.06</v>
       </c>
       <c r="C27" t="n">
-        <v>1667.98</v>
+        <v>2169.58</v>
       </c>
       <c r="D27" t="n">
-        <v>3258.59</v>
+        <v>9701.030000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>-19.02</v>
+        <v>-12.47</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2198.570000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-10.11</v>
+        <v>-5.77</v>
       </c>
       <c r="C28" t="n">
-        <v>2038.98</v>
+        <v>2246.13</v>
       </c>
       <c r="D28" t="n">
-        <v>5352.86</v>
+        <v>11964.74</v>
       </c>
       <c r="E28" t="n">
-        <v>-15.49</v>
+        <v>-11.41</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2263.709999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-8.609999999999999</v>
+        <v>-6.18</v>
       </c>
       <c r="C29" t="n">
-        <v>2149.76</v>
+        <v>2283.9</v>
       </c>
       <c r="D29" t="n">
-        <v>7502.46</v>
+        <v>14277.15</v>
       </c>
       <c r="E29" t="n">
-        <v>-13.77</v>
+        <v>-10.93</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2312.41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-7.06</v>
+        <v>-10.8</v>
       </c>
       <c r="C30" t="n">
-        <v>2169.58</v>
+        <v>2338.7</v>
       </c>
       <c r="D30" t="n">
-        <v>9701.030000000001</v>
+        <v>16644.79</v>
       </c>
       <c r="E30" t="n">
-        <v>-12.47</v>
+        <v>-10.94</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2367.640000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-5.77</v>
+        <v>-4.37</v>
       </c>
       <c r="C31" t="n">
-        <v>2246.13</v>
+        <v>2585.41</v>
       </c>
       <c r="D31" t="n">
-        <v>11964.74</v>
+        <v>19201.75</v>
       </c>
       <c r="E31" t="n">
-        <v>-11.41</v>
+        <v>-10.3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2556.959999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6.18</v>
+        <v>-6.95</v>
       </c>
       <c r="C32" t="n">
-        <v>2283.9</v>
+        <v>2571.23</v>
       </c>
       <c r="D32" t="n">
-        <v>14277.15</v>
+        <v>21750.4</v>
       </c>
       <c r="E32" t="n">
-        <v>-10.93</v>
+        <v>-9.869999999999999</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2548.650000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-10.8</v>
+        <v>9.81</v>
       </c>
       <c r="C33" t="n">
-        <v>2338.7</v>
+        <v>2667.24</v>
       </c>
       <c r="D33" t="n">
-        <v>16644.79</v>
+        <v>24515.18</v>
       </c>
       <c r="E33" t="n">
-        <v>-10.94</v>
+        <v>-7.96</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2764.779999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-4.37</v>
+        <v>17.72</v>
       </c>
       <c r="C34" t="n">
-        <v>2585.41</v>
+        <v>2711.64</v>
       </c>
       <c r="D34" t="n">
-        <v>19201.75</v>
+        <v>27327.17</v>
       </c>
       <c r="E34" t="n">
-        <v>-10.3</v>
+        <v>-5.53</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2811.989999999998</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20.06</v>
+        <v>15.83</v>
       </c>
       <c r="C35" t="n">
-        <v>3138.11</v>
+        <v>1986.25</v>
       </c>
       <c r="D35" t="n">
-        <v>27760.67</v>
+        <v>4301.67</v>
       </c>
       <c r="E35" t="n">
-        <v>27.46</v>
+        <v>27.78</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4301.67</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>16.87</v>
+        <v>27.34</v>
       </c>
       <c r="C36" t="n">
-        <v>3154.13</v>
+        <v>2533.91</v>
       </c>
       <c r="D36" t="n">
-        <v>31017.2</v>
+        <v>6970.56</v>
       </c>
       <c r="E36" t="n">
-        <v>26.08</v>
+        <v>30.23</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2668.89</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>14.91</v>
+        <v>24.39</v>
       </c>
       <c r="C37" t="n">
-        <v>3170.2</v>
+        <v>2677.57</v>
       </c>
       <c r="D37" t="n">
-        <v>34350.6</v>
+        <v>9759.889999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>25.23</v>
+        <v>30.14</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2789.329999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.83</v>
+        <v>31.97</v>
       </c>
       <c r="C38" t="n">
-        <v>1986.25</v>
+        <v>2876.95</v>
       </c>
       <c r="D38" t="n">
-        <v>4301.67</v>
+        <v>12702.13</v>
       </c>
       <c r="E38" t="n">
-        <v>27.78</v>
+        <v>30.89</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2942.24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>27.34</v>
+        <v>28.08</v>
       </c>
       <c r="C39" t="n">
-        <v>2533.91</v>
+        <v>2870.7</v>
       </c>
       <c r="D39" t="n">
-        <v>6970.56</v>
+        <v>15563.98</v>
       </c>
       <c r="E39" t="n">
-        <v>30.23</v>
+        <v>30.19</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2861.85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.39</v>
+        <v>26.31</v>
       </c>
       <c r="C40" t="n">
-        <v>2677.57</v>
+        <v>2896.97</v>
       </c>
       <c r="D40" t="n">
-        <v>9759.889999999999</v>
+        <v>18461.73</v>
       </c>
       <c r="E40" t="n">
-        <v>30.14</v>
+        <v>29.26</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2897.75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.97</v>
+        <v>27.25</v>
       </c>
       <c r="C41" t="n">
-        <v>2876.95</v>
+        <v>2996.07</v>
       </c>
       <c r="D41" t="n">
-        <v>12702.13</v>
+        <v>21474.12</v>
       </c>
       <c r="E41" t="n">
-        <v>30.89</v>
+        <v>29</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3012.389999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.08</v>
+        <v>17.42</v>
       </c>
       <c r="C42" t="n">
-        <v>2870.7</v>
+        <v>3065.28</v>
       </c>
       <c r="D42" t="n">
-        <v>15563.98</v>
+        <v>24580.26</v>
       </c>
       <c r="E42" t="n">
-        <v>30.19</v>
+        <v>27.98</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3106.139999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>26.31</v>
+        <v>20.06</v>
       </c>
       <c r="C43" t="n">
-        <v>2896.97</v>
+        <v>3138.11</v>
       </c>
       <c r="D43" t="n">
-        <v>18461.73</v>
+        <v>27760.67</v>
       </c>
       <c r="E43" t="n">
-        <v>29.26</v>
+        <v>27.46</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3180.41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>27.25</v>
+        <v>16.87</v>
       </c>
       <c r="C44" t="n">
-        <v>2996.07</v>
+        <v>3154.13</v>
       </c>
       <c r="D44" t="n">
-        <v>21474.12</v>
+        <v>31017.2</v>
       </c>
       <c r="E44" t="n">
-        <v>29</v>
+        <v>26.08</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3256.530000000002</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17.42</v>
+        <v>14.91</v>
       </c>
       <c r="C45" t="n">
-        <v>3065.28</v>
+        <v>3170.2</v>
       </c>
       <c r="D45" t="n">
-        <v>24580.26</v>
+        <v>34350.6</v>
       </c>
       <c r="E45" t="n">
-        <v>27.98</v>
+        <v>25.23</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3333.399999999998</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>12.3</v>
+        <v>16.11</v>
       </c>
       <c r="C46" t="n">
-        <v>3521.21</v>
+        <v>2396.47</v>
       </c>
       <c r="D46" t="n">
-        <v>31576.96</v>
+        <v>5071.18</v>
       </c>
       <c r="E46" t="n">
-        <v>14.89</v>
+        <v>13.62</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5071.18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>9.83</v>
+        <v>16.27</v>
       </c>
       <c r="C47" t="n">
-        <v>3448.13</v>
+        <v>2975.63</v>
       </c>
       <c r="D47" t="n">
-        <v>35045.33</v>
+        <v>8062.92</v>
       </c>
       <c r="E47" t="n">
-        <v>14.86</v>
+        <v>15.58</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2991.74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>12.7</v>
+        <v>14.49</v>
       </c>
       <c r="C48" t="n">
-        <v>3563.91</v>
+        <v>3009.12</v>
       </c>
       <c r="D48" t="n">
-        <v>38657.65</v>
+        <v>11107.56</v>
       </c>
       <c r="E48" t="n">
-        <v>13.96</v>
+        <v>15.34</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3044.639999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>16.11</v>
+        <v>6.63</v>
       </c>
       <c r="C49" t="n">
-        <v>2396.47</v>
+        <v>3063.56</v>
       </c>
       <c r="D49" t="n">
-        <v>5071.18</v>
+        <v>14250.08</v>
       </c>
       <c r="E49" t="n">
-        <v>13.62</v>
+        <v>13.68</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3142.52</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>16.27</v>
+        <v>13.77</v>
       </c>
       <c r="C50" t="n">
-        <v>2975.63</v>
+        <v>3219.07</v>
       </c>
       <c r="D50" t="n">
-        <v>8062.92</v>
+        <v>17501.01</v>
       </c>
       <c r="E50" t="n">
-        <v>15.58</v>
+        <v>13.69</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3250.929999999998</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>14.49</v>
+        <v>14.76</v>
       </c>
       <c r="C51" t="n">
-        <v>3009.12</v>
+        <v>3300.55</v>
       </c>
       <c r="D51" t="n">
-        <v>11107.56</v>
+        <v>20898.21</v>
       </c>
       <c r="E51" t="n">
-        <v>15.34</v>
+        <v>14.41</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3397.200000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>6.63</v>
+        <v>14.28</v>
       </c>
       <c r="C52" t="n">
-        <v>3063.56</v>
+        <v>3415.14</v>
       </c>
       <c r="D52" t="n">
-        <v>14250.08</v>
+        <v>24407.99</v>
       </c>
       <c r="E52" t="n">
-        <v>13.68</v>
+        <v>14.75</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3509.780000000002</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>13.77</v>
+        <v>13.28</v>
       </c>
       <c r="C53" t="n">
-        <v>3219.07</v>
+        <v>3460.6</v>
       </c>
       <c r="D53" t="n">
-        <v>17501.01</v>
+        <v>27964.21</v>
       </c>
       <c r="E53" t="n">
-        <v>13.69</v>
+        <v>14.9</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3556.219999999998</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>14.76</v>
+        <v>12.3</v>
       </c>
       <c r="C54" t="n">
-        <v>3300.55</v>
+        <v>3521.21</v>
       </c>
       <c r="D54" t="n">
-        <v>20898.21</v>
+        <v>31576.96</v>
       </c>
       <c r="E54" t="n">
-        <v>14.41</v>
+        <v>14.89</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3612.75</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>14.28</v>
+        <v>9.83</v>
       </c>
       <c r="C55" t="n">
-        <v>3415.14</v>
+        <v>3448.13</v>
       </c>
       <c r="D55" t="n">
-        <v>24407.99</v>
+        <v>35045.33</v>
       </c>
       <c r="E55" t="n">
-        <v>14.75</v>
+        <v>14.86</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3468.370000000003</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>13.28</v>
+        <v>12.7</v>
       </c>
       <c r="C56" t="n">
-        <v>3460.6</v>
+        <v>3563.91</v>
       </c>
       <c r="D56" t="n">
-        <v>27964.21</v>
+        <v>38657.65</v>
       </c>
       <c r="E56" t="n">
-        <v>14.9</v>
+        <v>13.96</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3612.32</v>
       </c>
     </row>
   </sheetData>
